--- a/Organizador de Declaração IR.xlsx
+++ b/Organizador de Declaração IR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maybe\OneDrive\Documentos\JEAN\PROJETOS\PROJETOS EXCEL\DIO\IFRENDIMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maybe\OneDrive\Documentos\JEAN\PROJETOS\PROJETOS EXCEL\DIO\Declaracao IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D16325C-3578-47CE-B217-4C8F5338F9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA8EF49-E061-4672-8969-D23F00644E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="0" xr2:uid="{2BAD8916-FE9E-4BB3-BD9E-5D759A593A61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="569" firstSheet="3" activeTab="3" xr2:uid="{2BAD8916-FE9E-4BB3-BD9E-5D759A593A61}"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="1" r:id="rId1"/>
@@ -537,11 +537,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
-    <numFmt numFmtId="169" formatCode="00000\-000"/>
-    <numFmt numFmtId="170" formatCode="&quot;(&quot;00&quot;)&quot;0000&quot;-&quot;0000"/>
-    <numFmt numFmtId="171" formatCode="&quot;(&quot;00&quot;)&quot;00000&quot;-&quot;0000"/>
-    <numFmt numFmtId="173" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="165" formatCode="00000\-000"/>
+    <numFmt numFmtId="166" formatCode="&quot;(&quot;00&quot;)&quot;0000&quot;-&quot;0000"/>
+    <numFmt numFmtId="167" formatCode="&quot;(&quot;00&quot;)&quot;00000&quot;-&quot;0000"/>
+    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -730,21 +730,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -752,15 +746,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -768,7 +762,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -780,9 +774,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -796,7 +796,7 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -3432,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6001CE-87AE-4D68-8166-866CC4584D42}">
   <dimension ref="A3:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3461,85 +3461,85 @@
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="3:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="3:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="3:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="3:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="13"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -3587,11 +3587,11 @@
       </c>
     </row>
     <row r="7" spans="3:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="11">
+      <c r="C7" s="24">
         <f>SUM(D11,D16,D21)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
@@ -3602,25 +3602,25 @@
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="3:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3628,25 +3628,25 @@
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="3:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="3:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="3:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3654,19 +3654,19 @@
       <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="3:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="3:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="15"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -4363,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29894500-8EC1-40C2-AADA-CFBBE654016B}">
   <dimension ref="A3:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4388,170 +4388,170 @@
       <c r="E4" s="7"/>
     </row>
     <row r="7" spans="3:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C7:E7"/>
   </mergeCells>

--- a/Organizador de Declaração IR.xlsx
+++ b/Organizador de Declaração IR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maybe\OneDrive\Documentos\JEAN\PROJETOS\PROJETOS EXCEL\DIO\Declaracao IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA8EF49-E061-4672-8969-D23F00644E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DB78DB-1F48-4BDB-AACF-C9BB0243751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="569" firstSheet="3" activeTab="3" xr2:uid="{2BAD8916-FE9E-4BB3-BD9E-5D759A593A61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="569" xr2:uid="{2BAD8916-FE9E-4BB3-BD9E-5D759A593A61}"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="1" r:id="rId1"/>
@@ -3432,7 +3432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6001CE-87AE-4D68-8166-866CC4584D42}">
   <dimension ref="A3:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4363,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29894500-8EC1-40C2-AADA-CFBBE654016B}">
   <dimension ref="A3:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
